--- a/branches/refs/heads/draft/StructureDefinition-hiv-patient.xlsx
+++ b/branches/refs/heads/draft/StructureDefinition-hiv-patient.xlsx
@@ -639,31 +639,31 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>cccdID</t>
+    <t>national_id12</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/NationalID</t>
   </si>
   <si>
-    <t>cmtndID</t>
+    <t>national_id9</t>
   </si>
   <si>
     <t>hhttps://basespecs.vn/NamingSystem/NationalID9</t>
   </si>
   <si>
-    <t>insuranceID</t>
+    <t>insurance_nr</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/InsuranceNumbers</t>
   </si>
   <si>
-    <t>passportnum</t>
+    <t>passport_nr</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/PassportNumbers</t>
   </si>
   <si>
-    <t>driverlic</t>
+    <t>driver_license</t>
   </si>
   <si>
     <t>https://basespecs.vn/NamingSystem/DriverID</t>
